--- a/02_meter_data/daily_meter_data/whole_gas_raw/10_14.xlsx
+++ b/02_meter_data/daily_meter_data/whole_gas_raw/10_14.xlsx
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -6914,7 +6914,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -6978,7 +6978,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -7010,7 +7010,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -7074,7 +7074,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -7090,7 +7090,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -7170,7 +7170,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421">
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -7218,7 +7218,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -7298,7 +7298,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -7330,7 +7330,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -7410,7 +7410,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -7458,7 +7458,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -7474,7 +7474,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -7490,7 +7490,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -7554,7 +7554,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -7634,7 +7634,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -7650,7 +7650,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -7698,7 +7698,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -7794,7 +7794,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -7810,7 +7810,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -7874,7 +7874,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -7938,7 +7938,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -8036,7 +8036,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -8084,7 +8084,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -8116,7 +8116,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -8180,7 +8180,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -8294,7 +8294,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -8330,7 +8330,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -8418,7 +8418,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -8490,7 +8490,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -8526,7 +8526,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -8544,7 +8544,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -8594,7 +8594,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -8610,7 +8610,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -8658,7 +8658,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -8690,7 +8690,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -8754,7 +8754,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -8770,7 +8770,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -8818,7 +8818,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -8834,7 +8834,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -8850,7 +8850,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -8898,7 +8898,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -8914,7 +8914,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -8930,7 +8930,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -8962,7 +8962,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -8978,7 +8978,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -8994,7 +8994,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -9074,7 +9074,7 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -9090,7 +9090,7 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -9138,7 +9138,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -9170,7 +9170,7 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -9202,7 +9202,7 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -9234,7 +9234,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -9250,7 +9250,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -9314,7 +9314,7 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -9330,7 +9330,7 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -9362,7 +9362,7 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -9378,7 +9378,7 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -9410,7 +9410,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -9458,7 +9458,7 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -9490,7 +9490,7 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -9522,7 +9522,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -9538,7 +9538,7 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -9554,7 +9554,7 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -9618,7 +9618,7 @@
         </is>
       </c>
       <c r="D571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -9650,7 +9650,7 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -9682,7 +9682,7 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -9698,7 +9698,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -9714,7 +9714,7 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -9730,7 +9730,7 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -9762,7 +9762,7 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -9778,7 +9778,7 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -9810,7 +9810,7 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -9858,7 +9858,7 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -9874,7 +9874,7 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -9890,7 +9890,7 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -9922,7 +9922,7 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -9938,7 +9938,7 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -9954,7 +9954,7 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -9970,7 +9970,7 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -10002,7 +10002,7 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -10018,7 +10018,7 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -10034,7 +10034,7 @@
         </is>
       </c>
       <c r="D597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -10098,7 +10098,7 @@
         </is>
       </c>
       <c r="D601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -10114,7 +10114,7 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -10178,7 +10178,7 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -10194,7 +10194,7 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -10210,7 +10210,7 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -10242,7 +10242,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -10274,7 +10274,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -10290,7 +10290,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -10322,7 +10322,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -10338,7 +10338,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -10354,7 +10354,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -10370,7 +10370,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -10402,7 +10402,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -10418,7 +10418,7 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -10434,7 +10434,7 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="D625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -10498,7 +10498,7 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -10514,7 +10514,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -10530,7 +10530,7 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -10562,7 +10562,7 @@
         </is>
       </c>
       <c r="D630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -10578,7 +10578,7 @@
         </is>
       </c>
       <c r="D631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="D632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
@@ -10610,7 +10610,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -10658,7 +10658,7 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -10690,7 +10690,7 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
@@ -10738,7 +10738,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -10754,7 +10754,7 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -10770,7 +10770,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -10802,7 +10802,7 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -10818,7 +10818,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -10834,7 +10834,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -10850,7 +10850,7 @@
         </is>
       </c>
       <c r="D648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="D649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="D650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -10898,7 +10898,7 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -10914,7 +10914,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -10930,7 +10930,7 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -10962,7 +10962,7 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
@@ -10978,7 +10978,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -10994,7 +10994,7 @@
         </is>
       </c>
       <c r="D657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
@@ -11010,7 +11010,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -11042,7 +11042,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -11058,7 +11058,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
@@ -11074,7 +11074,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -11090,7 +11090,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -11122,7 +11122,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
@@ -11138,7 +11138,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -11154,7 +11154,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -11202,7 +11202,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -11234,7 +11234,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -11250,7 +11250,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -11330,7 +11330,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -11362,7 +11362,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -11378,7 +11378,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -11394,7 +11394,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -11410,7 +11410,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -11458,7 +11458,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -11474,7 +11474,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -11490,7 +11490,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -11538,7 +11538,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -11554,7 +11554,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -11570,7 +11570,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -11618,7 +11618,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -11634,7 +11634,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -11698,7 +11698,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -11730,7 +11730,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -11778,7 +11778,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -11794,7 +11794,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -11810,7 +11810,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -11858,7 +11858,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -11874,7 +11874,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -11890,7 +11890,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -15458,7 +15458,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074">
@@ -19650,7 +19650,7 @@
         </is>
       </c>
       <c r="D1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199">
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="D1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -19682,7 +19682,7 @@
         </is>
       </c>
       <c r="D1200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201">
@@ -19698,7 +19698,7 @@
         </is>
       </c>
       <c r="D1201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202">
@@ -19714,7 +19714,7 @@
         </is>
       </c>
       <c r="D1202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203">
@@ -19730,7 +19730,7 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="D1204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205">
@@ -19762,7 +19762,7 @@
         </is>
       </c>
       <c r="D1205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206">
@@ -19778,7 +19778,7 @@
         </is>
       </c>
       <c r="D1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -19794,7 +19794,7 @@
         </is>
       </c>
       <c r="D1207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208">
@@ -19810,7 +19810,7 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209">
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="D1209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210">
@@ -19842,7 +19842,7 @@
         </is>
       </c>
       <c r="D1210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211">
@@ -19858,7 +19858,7 @@
         </is>
       </c>
       <c r="D1211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212">
@@ -19874,7 +19874,7 @@
         </is>
       </c>
       <c r="D1212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213">
@@ -19890,7 +19890,7 @@
         </is>
       </c>
       <c r="D1213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214">
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="D1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215">
@@ -19922,7 +19922,7 @@
         </is>
       </c>
       <c r="D1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216">
@@ -19938,7 +19938,7 @@
         </is>
       </c>
       <c r="D1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217">
@@ -19954,7 +19954,7 @@
         </is>
       </c>
       <c r="D1217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218">
@@ -19970,7 +19970,7 @@
         </is>
       </c>
       <c r="D1218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219">
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="D1219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D1220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221">
@@ -20018,7 +20018,7 @@
         </is>
       </c>
       <c r="D1221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -20034,7 +20034,7 @@
         </is>
       </c>
       <c r="D1222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223">
@@ -20050,7 +20050,7 @@
         </is>
       </c>
       <c r="D1223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224">
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="D1224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225">
@@ -20082,7 +20082,7 @@
         </is>
       </c>
       <c r="D1225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226">
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="D1226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227">
@@ -20114,7 +20114,7 @@
         </is>
       </c>
       <c r="D1227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228">
@@ -20130,7 +20130,7 @@
         </is>
       </c>
       <c r="D1228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="D1229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230">
@@ -20162,7 +20162,7 @@
         </is>
       </c>
       <c r="D1230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231">
@@ -20178,7 +20178,7 @@
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232">
@@ -20194,7 +20194,7 @@
         </is>
       </c>
       <c r="D1232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233">
@@ -20210,7 +20210,7 @@
         </is>
       </c>
       <c r="D1233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234">
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="D1234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235">
@@ -20242,7 +20242,7 @@
         </is>
       </c>
       <c r="D1235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236">
@@ -20258,7 +20258,7 @@
         </is>
       </c>
       <c r="D1236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -20274,7 +20274,7 @@
         </is>
       </c>
       <c r="D1237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238">
@@ -20290,7 +20290,7 @@
         </is>
       </c>
       <c r="D1238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239">
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="D1239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240">
@@ -20322,7 +20322,7 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241">
@@ -20338,7 +20338,7 @@
         </is>
       </c>
       <c r="D1241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242">
@@ -20354,7 +20354,7 @@
         </is>
       </c>
       <c r="D1242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243">
@@ -20370,7 +20370,7 @@
         </is>
       </c>
       <c r="D1243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244">
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="D1244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D1245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246">
@@ -20418,7 +20418,7 @@
         </is>
       </c>
       <c r="D1246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247">
@@ -20434,7 +20434,7 @@
         </is>
       </c>
       <c r="D1247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248">
@@ -20450,7 +20450,7 @@
         </is>
       </c>
       <c r="D1248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249">
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="D1249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250">
@@ -20482,7 +20482,7 @@
         </is>
       </c>
       <c r="D1250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251">
@@ -20498,7 +20498,7 @@
         </is>
       </c>
       <c r="D1251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252">
@@ -20514,7 +20514,7 @@
         </is>
       </c>
       <c r="D1252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253">
@@ -20530,7 +20530,7 @@
         </is>
       </c>
       <c r="D1253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255">
@@ -20562,7 +20562,7 @@
         </is>
       </c>
       <c r="D1255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256">
@@ -20578,7 +20578,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257">
@@ -20594,7 +20594,7 @@
         </is>
       </c>
       <c r="D1257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258">
@@ -20610,7 +20610,7 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259">
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260">
@@ -20642,7 +20642,7 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261">
@@ -20658,7 +20658,7 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262">
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="D1262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -20690,7 +20690,7 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264">
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265">
@@ -20722,7 +20722,7 @@
         </is>
       </c>
       <c r="D1265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266">
@@ -20738,7 +20738,7 @@
         </is>
       </c>
       <c r="D1266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267">
@@ -20754,7 +20754,7 @@
         </is>
       </c>
       <c r="D1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268">
@@ -20770,7 +20770,7 @@
         </is>
       </c>
       <c r="D1268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269">
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="D1269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D1270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271">
@@ -20818,7 +20818,7 @@
         </is>
       </c>
       <c r="D1271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272">
@@ -20834,7 +20834,7 @@
         </is>
       </c>
       <c r="D1272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273">
@@ -20850,7 +20850,7 @@
         </is>
       </c>
       <c r="D1273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274">
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="D1274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275">
@@ -20882,7 +20882,7 @@
         </is>
       </c>
       <c r="D1275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276">
@@ -20898,7 +20898,7 @@
         </is>
       </c>
       <c r="D1276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277">
@@ -20914,7 +20914,7 @@
         </is>
       </c>
       <c r="D1277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278">
@@ -20930,7 +20930,7 @@
         </is>
       </c>
       <c r="D1278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="D1279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280">
@@ -20962,7 +20962,7 @@
         </is>
       </c>
       <c r="D1280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281">
@@ -20978,7 +20978,7 @@
         </is>
       </c>
       <c r="D1281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282">
@@ -20994,7 +20994,7 @@
         </is>
       </c>
       <c r="D1282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283">
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="D1283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284">
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="D1284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285">
@@ -21042,7 +21042,7 @@
         </is>
       </c>
       <c r="D1285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286">
@@ -21058,7 +21058,7 @@
         </is>
       </c>
       <c r="D1286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287">
@@ -21074,7 +21074,7 @@
         </is>
       </c>
       <c r="D1287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288">
@@ -21090,7 +21090,7 @@
         </is>
       </c>
       <c r="D1288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289">
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="D1289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290">
@@ -21122,7 +21122,7 @@
         </is>
       </c>
       <c r="D1290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291">
@@ -21138,7 +21138,7 @@
         </is>
       </c>
       <c r="D1291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292">
@@ -21154,7 +21154,7 @@
         </is>
       </c>
       <c r="D1292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293">
@@ -21170,7 +21170,7 @@
         </is>
       </c>
       <c r="D1293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="D1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D1295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296">
@@ -21218,7 +21218,7 @@
         </is>
       </c>
       <c r="D1296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297">
@@ -21234,7 +21234,7 @@
         </is>
       </c>
       <c r="D1297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298">
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="D1298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299">
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="D1299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300">
@@ -21282,7 +21282,7 @@
         </is>
       </c>
       <c r="D1300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301">
@@ -21298,7 +21298,7 @@
         </is>
       </c>
       <c r="D1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302">
@@ -21314,7 +21314,7 @@
         </is>
       </c>
       <c r="D1302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303">
@@ -21330,7 +21330,7 @@
         </is>
       </c>
       <c r="D1303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="D1304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305">
@@ -21362,7 +21362,7 @@
         </is>
       </c>
       <c r="D1305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306">
@@ -21378,7 +21378,7 @@
         </is>
       </c>
       <c r="D1306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307">
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="D1307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308">
@@ -21410,7 +21410,7 @@
         </is>
       </c>
       <c r="D1308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309">
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="D1309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">
@@ -21442,7 +21442,7 @@
         </is>
       </c>
       <c r="D1310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311">
@@ -21458,7 +21458,7 @@
         </is>
       </c>
       <c r="D1311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312">
@@ -21474,7 +21474,7 @@
         </is>
       </c>
       <c r="D1312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313">
@@ -21490,7 +21490,7 @@
         </is>
       </c>
       <c r="D1313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314">
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="D1314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315">
@@ -21522,7 +21522,7 @@
         </is>
       </c>
       <c r="D1315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316">
@@ -21538,7 +21538,7 @@
         </is>
       </c>
       <c r="D1316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317">
@@ -21554,7 +21554,7 @@
         </is>
       </c>
       <c r="D1317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318">
@@ -21570,7 +21570,7 @@
         </is>
       </c>
       <c r="D1318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319">
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="D1319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D1320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321">
@@ -21618,7 +21618,7 @@
         </is>
       </c>
       <c r="D1321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322">
@@ -21634,7 +21634,7 @@
         </is>
       </c>
       <c r="D1322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323">
@@ -21650,7 +21650,7 @@
         </is>
       </c>
       <c r="D1323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324">
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="D1324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325">
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="D1325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326">
@@ -21698,7 +21698,7 @@
         </is>
       </c>
       <c r="D1326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327">
@@ -21714,7 +21714,7 @@
         </is>
       </c>
       <c r="D1327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -21730,7 +21730,7 @@
         </is>
       </c>
       <c r="D1328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="D1329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330">
@@ -21762,7 +21762,7 @@
         </is>
       </c>
       <c r="D1330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331">
@@ -21778,7 +21778,7 @@
         </is>
       </c>
       <c r="D1331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332">
@@ -21794,7 +21794,7 @@
         </is>
       </c>
       <c r="D1332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333">
@@ -21810,7 +21810,7 @@
         </is>
       </c>
       <c r="D1333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334">
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="D1334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335">
@@ -21842,7 +21842,7 @@
         </is>
       </c>
       <c r="D1335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336">
@@ -21858,7 +21858,7 @@
         </is>
       </c>
       <c r="D1336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -21874,7 +21874,7 @@
         </is>
       </c>
       <c r="D1337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -21890,7 +21890,7 @@
         </is>
       </c>
       <c r="D1338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339">
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="D1339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -21922,7 +21922,7 @@
         </is>
       </c>
       <c r="D1340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341">
@@ -21938,7 +21938,7 @@
         </is>
       </c>
       <c r="D1341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342">
@@ -21954,7 +21954,7 @@
         </is>
       </c>
       <c r="D1342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343">
@@ -21970,7 +21970,7 @@
         </is>
       </c>
       <c r="D1343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344">
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="D1344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D1345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346">
@@ -22018,7 +22018,7 @@
         </is>
       </c>
       <c r="D1346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347">
@@ -22034,7 +22034,7 @@
         </is>
       </c>
       <c r="D1347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348">
@@ -22050,7 +22050,7 @@
         </is>
       </c>
       <c r="D1348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349">
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="D1349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350">
@@ -22082,7 +22082,7 @@
         </is>
       </c>
       <c r="D1350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351">
@@ -22098,7 +22098,7 @@
         </is>
       </c>
       <c r="D1351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352">
@@ -22114,7 +22114,7 @@
         </is>
       </c>
       <c r="D1352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1353">
@@ -22130,7 +22130,7 @@
         </is>
       </c>
       <c r="D1353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="D1354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355">
@@ -22162,7 +22162,7 @@
         </is>
       </c>
       <c r="D1355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1356">
@@ -22178,7 +22178,7 @@
         </is>
       </c>
       <c r="D1356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1357">
@@ -22194,7 +22194,7 @@
         </is>
       </c>
       <c r="D1357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1358">
@@ -22210,7 +22210,7 @@
         </is>
       </c>
       <c r="D1358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1359">
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="D1359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1360">
@@ -22242,7 +22242,7 @@
         </is>
       </c>
       <c r="D1360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1361">
@@ -22258,7 +22258,7 @@
         </is>
       </c>
       <c r="D1361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1362">
@@ -22274,7 +22274,7 @@
         </is>
       </c>
       <c r="D1362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1363">
@@ -22290,7 +22290,7 @@
         </is>
       </c>
       <c r="D1363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1364">
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="D1364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1365">
@@ -22322,7 +22322,7 @@
         </is>
       </c>
       <c r="D1365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1366">
@@ -22338,7 +22338,7 @@
         </is>
       </c>
       <c r="D1366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1367">
@@ -22354,7 +22354,7 @@
         </is>
       </c>
       <c r="D1367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368">
@@ -22370,7 +22370,7 @@
         </is>
       </c>
       <c r="D1368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1369">
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="D1369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1370">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D1370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1371">
@@ -22418,7 +22418,7 @@
         </is>
       </c>
       <c r="D1371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1372">
@@ -22434,7 +22434,7 @@
         </is>
       </c>
       <c r="D1372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373">
@@ -22450,7 +22450,7 @@
         </is>
       </c>
       <c r="D1373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1374">
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="D1374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375">
@@ -22482,7 +22482,7 @@
         </is>
       </c>
       <c r="D1375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1376">
@@ -22498,7 +22498,7 @@
         </is>
       </c>
       <c r="D1376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1377">
@@ -22514,7 +22514,7 @@
         </is>
       </c>
       <c r="D1377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378">
@@ -22530,7 +22530,7 @@
         </is>
       </c>
       <c r="D1378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="D1379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1380">
@@ -22562,7 +22562,7 @@
         </is>
       </c>
       <c r="D1380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1381">
@@ -22578,7 +22578,7 @@
         </is>
       </c>
       <c r="D1381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1382">
@@ -22594,7 +22594,7 @@
         </is>
       </c>
       <c r="D1382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1383">
@@ -22610,7 +22610,7 @@
         </is>
       </c>
       <c r="D1383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1384">
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="D1384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1385">
@@ -22642,7 +22642,7 @@
         </is>
       </c>
       <c r="D1385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1386">
@@ -22658,7 +22658,7 @@
         </is>
       </c>
       <c r="D1386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1387">
@@ -22674,7 +22674,7 @@
         </is>
       </c>
       <c r="D1387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388">
@@ -22690,7 +22690,7 @@
         </is>
       </c>
       <c r="D1388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1389">
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="D1389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1390">
@@ -22722,7 +22722,7 @@
         </is>
       </c>
       <c r="D1390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1391">
@@ -22738,7 +22738,7 @@
         </is>
       </c>
       <c r="D1391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1392">
@@ -22754,7 +22754,7 @@
         </is>
       </c>
       <c r="D1392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1393">
@@ -22770,7 +22770,7 @@
         </is>
       </c>
       <c r="D1393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1394">
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="D1394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1395">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D1395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1396">
@@ -22818,7 +22818,7 @@
         </is>
       </c>
       <c r="D1396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1397">
@@ -22834,7 +22834,7 @@
         </is>
       </c>
       <c r="D1397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1398">
@@ -22850,7 +22850,7 @@
         </is>
       </c>
       <c r="D1398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399">
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="D1399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1400">
@@ -22882,7 +22882,7 @@
         </is>
       </c>
       <c r="D1400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401">
@@ -22898,7 +22898,7 @@
         </is>
       </c>
       <c r="D1401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1402">
@@ -22914,7 +22914,7 @@
         </is>
       </c>
       <c r="D1402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1403">
@@ -22930,7 +22930,7 @@
         </is>
       </c>
       <c r="D1403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="D1404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405">
@@ -22962,7 +22962,7 @@
         </is>
       </c>
       <c r="D1405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1406">
@@ -22978,7 +22978,7 @@
         </is>
       </c>
       <c r="D1406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1407">
@@ -22994,7 +22994,7 @@
         </is>
       </c>
       <c r="D1407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1408">
@@ -23010,7 +23010,7 @@
         </is>
       </c>
       <c r="D1408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409">
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="D1409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1410">
@@ -23042,7 +23042,7 @@
         </is>
       </c>
       <c r="D1410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1411">
@@ -23058,7 +23058,7 @@
         </is>
       </c>
       <c r="D1411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1412">
@@ -23074,7 +23074,7 @@
         </is>
       </c>
       <c r="D1412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1413">
@@ -23090,7 +23090,7 @@
         </is>
       </c>
       <c r="D1413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1414">
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="D1414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1415">
@@ -23122,7 +23122,7 @@
         </is>
       </c>
       <c r="D1415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1416">
@@ -23138,7 +23138,7 @@
         </is>
       </c>
       <c r="D1416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417">
@@ -23154,7 +23154,7 @@
         </is>
       </c>
       <c r="D1417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1418">
@@ -23170,7 +23170,7 @@
         </is>
       </c>
       <c r="D1418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1419">
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="D1419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1420">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D1420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1421">
@@ -23218,7 +23218,7 @@
         </is>
       </c>
       <c r="D1421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1422">
@@ -23234,7 +23234,7 @@
         </is>
       </c>
       <c r="D1422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1423">
@@ -23250,7 +23250,7 @@
         </is>
       </c>
       <c r="D1423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1424">
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="D1424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1425">
@@ -23282,7 +23282,7 @@
         </is>
       </c>
       <c r="D1425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1426">
@@ -23298,7 +23298,7 @@
         </is>
       </c>
       <c r="D1426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1427">
@@ -23314,7 +23314,7 @@
         </is>
       </c>
       <c r="D1427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1428">
@@ -23330,7 +23330,7 @@
         </is>
       </c>
       <c r="D1428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1429">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="D1429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1430">
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="D1430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1431">
@@ -23378,7 +23378,7 @@
         </is>
       </c>
       <c r="D1431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1432">
@@ -23394,7 +23394,7 @@
         </is>
       </c>
       <c r="D1432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1433">
@@ -23410,7 +23410,7 @@
         </is>
       </c>
       <c r="D1433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1434">
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="D1434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1435">
@@ -23442,7 +23442,7 @@
         </is>
       </c>
       <c r="D1435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1436">
@@ -23458,7 +23458,7 @@
         </is>
       </c>
       <c r="D1436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1437">
@@ -23474,7 +23474,7 @@
         </is>
       </c>
       <c r="D1437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1438">
@@ -23490,7 +23490,7 @@
         </is>
       </c>
       <c r="D1438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439">
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="D1439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1440">
@@ -23522,7 +23522,7 @@
         </is>
       </c>
       <c r="D1440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1441">
@@ -23538,7 +23538,7 @@
         </is>
       </c>
       <c r="D1441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442">
@@ -23554,7 +23554,7 @@
         </is>
       </c>
       <c r="D1442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1443">
@@ -23570,7 +23570,7 @@
         </is>
       </c>
       <c r="D1443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1444">
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="D1444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1445">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D1445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1446">
@@ -23618,7 +23618,7 @@
         </is>
       </c>
       <c r="D1446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447">
@@ -23634,7 +23634,7 @@
         </is>
       </c>
       <c r="D1447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1448">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="D1448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449">
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="D1449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450">
@@ -23682,7 +23682,7 @@
         </is>
       </c>
       <c r="D1450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451">
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="D1451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452">
@@ -23714,7 +23714,7 @@
         </is>
       </c>
       <c r="D1452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1453">
@@ -23730,7 +23730,7 @@
         </is>
       </c>
       <c r="D1453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1454">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="D1454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1455">
@@ -23762,7 +23762,7 @@
         </is>
       </c>
       <c r="D1455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1456">
@@ -23778,7 +23778,7 @@
         </is>
       </c>
       <c r="D1456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1457">
@@ -23794,7 +23794,7 @@
         </is>
       </c>
       <c r="D1457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1458">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="D1458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1459">
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="D1459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1460">
@@ -23842,7 +23842,7 @@
         </is>
       </c>
       <c r="D1460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1461">
@@ -23858,7 +23858,7 @@
         </is>
       </c>
       <c r="D1461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1462">
@@ -23874,7 +23874,7 @@
         </is>
       </c>
       <c r="D1462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1463">
@@ -23890,7 +23890,7 @@
         </is>
       </c>
       <c r="D1463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1464">
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="D1464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1465">
@@ -23922,7 +23922,7 @@
         </is>
       </c>
       <c r="D1465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1466">
@@ -23938,7 +23938,7 @@
         </is>
       </c>
       <c r="D1466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1467">
@@ -23954,7 +23954,7 @@
         </is>
       </c>
       <c r="D1467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1468">
@@ -23970,7 +23970,7 @@
         </is>
       </c>
       <c r="D1468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1469">
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="D1469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1470">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D1470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1471">
@@ -24018,7 +24018,7 @@
         </is>
       </c>
       <c r="D1471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1472">
@@ -24034,7 +24034,7 @@
         </is>
       </c>
       <c r="D1472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1473">
@@ -24050,7 +24050,7 @@
         </is>
       </c>
       <c r="D1473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1474">
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="D1474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1475">
@@ -24082,7 +24082,7 @@
         </is>
       </c>
       <c r="D1475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1476">
@@ -24098,7 +24098,7 @@
         </is>
       </c>
       <c r="D1476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1477">
@@ -24114,7 +24114,7 @@
         </is>
       </c>
       <c r="D1477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1478">
@@ -24130,7 +24130,7 @@
         </is>
       </c>
       <c r="D1478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1479">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="D1479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1480">
@@ -24162,7 +24162,7 @@
         </is>
       </c>
       <c r="D1480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1481">
@@ -24178,7 +24178,7 @@
         </is>
       </c>
       <c r="D1481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1482">
@@ -24194,7 +24194,7 @@
         </is>
       </c>
       <c r="D1482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1483">
@@ -24210,7 +24210,7 @@
         </is>
       </c>
       <c r="D1483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1484">
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="D1484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1485">
@@ -24242,7 +24242,7 @@
         </is>
       </c>
       <c r="D1485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1486">
@@ -24258,7 +24258,7 @@
         </is>
       </c>
       <c r="D1486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487">
@@ -24274,7 +24274,7 @@
         </is>
       </c>
       <c r="D1487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1488">
@@ -24290,7 +24290,7 @@
         </is>
       </c>
       <c r="D1488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1489">
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="D1489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1490">
@@ -24322,7 +24322,7 @@
         </is>
       </c>
       <c r="D1490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1491">
@@ -24338,7 +24338,7 @@
         </is>
       </c>
       <c r="D1491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1492">
@@ -24354,7 +24354,7 @@
         </is>
       </c>
       <c r="D1492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1493">
@@ -24370,7 +24370,7 @@
         </is>
       </c>
       <c r="D1493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1494">
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="D1494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1495">
@@ -24402,7 +24402,7 @@
         </is>
       </c>
       <c r="D1495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1496">
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="D1496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1497">
@@ -24434,7 +24434,7 @@
         </is>
       </c>
       <c r="D1497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1498">
@@ -24450,7 +24450,7 @@
         </is>
       </c>
       <c r="D1498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1499">
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="D1499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1500">
@@ -24482,7 +24482,7 @@
         </is>
       </c>
       <c r="D1500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1501">
@@ -24498,7 +24498,7 @@
         </is>
       </c>
       <c r="D1501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1502">
@@ -24514,7 +24514,7 @@
         </is>
       </c>
       <c r="D1502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1503">
@@ -24530,7 +24530,7 @@
         </is>
       </c>
       <c r="D1503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1504">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="D1504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1505">
@@ -24562,7 +24562,7 @@
         </is>
       </c>
       <c r="D1505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1506">
@@ -24578,7 +24578,7 @@
         </is>
       </c>
       <c r="D1506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1507">
@@ -24594,7 +24594,7 @@
         </is>
       </c>
       <c r="D1507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1508">
@@ -24610,7 +24610,7 @@
         </is>
       </c>
       <c r="D1508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1509">
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="D1509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1510">
@@ -24642,7 +24642,7 @@
         </is>
       </c>
       <c r="D1510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1511">
@@ -24658,7 +24658,7 @@
         </is>
       </c>
       <c r="D1511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1512">
@@ -24674,7 +24674,7 @@
         </is>
       </c>
       <c r="D1512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1513">
@@ -24690,7 +24690,7 @@
         </is>
       </c>
       <c r="D1513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1514">
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="D1514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1515">
@@ -24722,7 +24722,7 @@
         </is>
       </c>
       <c r="D1515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1516">
@@ -24738,7 +24738,7 @@
         </is>
       </c>
       <c r="D1516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1517">
@@ -24754,7 +24754,7 @@
         </is>
       </c>
       <c r="D1517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1518">
@@ -24770,7 +24770,7 @@
         </is>
       </c>
       <c r="D1518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1519">
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="D1519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1520">
@@ -24802,7 +24802,7 @@
         </is>
       </c>
       <c r="D1520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1521">
@@ -24818,7 +24818,7 @@
         </is>
       </c>
       <c r="D1521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1522">
@@ -24834,7 +24834,7 @@
         </is>
       </c>
       <c r="D1522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1523">
@@ -24850,7 +24850,7 @@
         </is>
       </c>
       <c r="D1523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1524">
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="D1524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1525">
@@ -24882,7 +24882,7 @@
         </is>
       </c>
       <c r="D1525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1526">
@@ -24898,7 +24898,7 @@
         </is>
       </c>
       <c r="D1526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1527">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="D1527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1528">
@@ -24930,7 +24930,7 @@
         </is>
       </c>
       <c r="D1528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1529">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="D1529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1530">
@@ -24962,7 +24962,7 @@
         </is>
       </c>
       <c r="D1530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1531">
@@ -24978,7 +24978,7 @@
         </is>
       </c>
       <c r="D1531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532">
@@ -24994,7 +24994,7 @@
         </is>
       </c>
       <c r="D1532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1533">
@@ -25010,7 +25010,7 @@
         </is>
       </c>
       <c r="D1533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1534">
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="D1534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1535">
@@ -25042,7 +25042,7 @@
         </is>
       </c>
       <c r="D1535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1536">
@@ -25058,7 +25058,7 @@
         </is>
       </c>
       <c r="D1536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1537">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="D1537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1538">
@@ -25090,7 +25090,7 @@
         </is>
       </c>
       <c r="D1538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1539">
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="D1539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1540">
@@ -25122,7 +25122,7 @@
         </is>
       </c>
       <c r="D1540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1541">
@@ -25138,7 +25138,7 @@
         </is>
       </c>
       <c r="D1541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1542">
@@ -25154,7 +25154,7 @@
         </is>
       </c>
       <c r="D1542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1543">
@@ -25170,7 +25170,7 @@
         </is>
       </c>
       <c r="D1543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1544">
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="D1544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1545">
@@ -25202,7 +25202,7 @@
         </is>
       </c>
       <c r="D1545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1546">
@@ -25218,7 +25218,7 @@
         </is>
       </c>
       <c r="D1546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1547">
@@ -25234,7 +25234,7 @@
         </is>
       </c>
       <c r="D1547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1548">
@@ -25250,7 +25250,7 @@
         </is>
       </c>
       <c r="D1548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1549">
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="D1549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1550">
@@ -25282,7 +25282,7 @@
         </is>
       </c>
       <c r="D1550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1551">
@@ -25298,7 +25298,7 @@
         </is>
       </c>
       <c r="D1551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1552">
@@ -25314,7 +25314,7 @@
         </is>
       </c>
       <c r="D1552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1553">
@@ -25330,7 +25330,7 @@
         </is>
       </c>
       <c r="D1553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1554">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="D1554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1555">
@@ -25362,7 +25362,7 @@
         </is>
       </c>
       <c r="D1555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1556">
@@ -25378,7 +25378,7 @@
         </is>
       </c>
       <c r="D1556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1557">
@@ -25394,7 +25394,7 @@
         </is>
       </c>
       <c r="D1557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1558">
@@ -25410,7 +25410,7 @@
         </is>
       </c>
       <c r="D1558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1559">
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="D1559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1560">
@@ -25442,7 +25442,7 @@
         </is>
       </c>
       <c r="D1560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1561">
@@ -25458,7 +25458,7 @@
         </is>
       </c>
       <c r="D1561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1562">
@@ -25474,7 +25474,7 @@
         </is>
       </c>
       <c r="D1562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1563">
@@ -25490,7 +25490,7 @@
         </is>
       </c>
       <c r="D1563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1564">
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="D1564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1565">
@@ -25522,7 +25522,7 @@
         </is>
       </c>
       <c r="D1565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1566">
@@ -25538,7 +25538,7 @@
         </is>
       </c>
       <c r="D1566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1567">
@@ -25554,7 +25554,7 @@
         </is>
       </c>
       <c r="D1567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1568">
@@ -25570,7 +25570,7 @@
         </is>
       </c>
       <c r="D1568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1569">
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="D1569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1570">
@@ -25602,7 +25602,7 @@
         </is>
       </c>
       <c r="D1570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1571">
@@ -25618,7 +25618,7 @@
         </is>
       </c>
       <c r="D1571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1572">
@@ -25634,7 +25634,7 @@
         </is>
       </c>
       <c r="D1572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1573">
@@ -25650,7 +25650,7 @@
         </is>
       </c>
       <c r="D1573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1574">
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="D1574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1575">
@@ -25682,7 +25682,7 @@
         </is>
       </c>
       <c r="D1575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1576">
@@ -25698,7 +25698,7 @@
         </is>
       </c>
       <c r="D1576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1577">
@@ -25714,7 +25714,7 @@
         </is>
       </c>
       <c r="D1577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578">
@@ -25730,7 +25730,7 @@
         </is>
       </c>
       <c r="D1578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1579">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="D1579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580">
@@ -25762,7 +25762,7 @@
         </is>
       </c>
       <c r="D1580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1581">
@@ -25778,7 +25778,7 @@
         </is>
       </c>
       <c r="D1581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1582">
@@ -25794,7 +25794,7 @@
         </is>
       </c>
       <c r="D1582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1583">
@@ -25810,7 +25810,7 @@
         </is>
       </c>
       <c r="D1583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1584">
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="D1584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1585">
@@ -25842,7 +25842,7 @@
         </is>
       </c>
       <c r="D1585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1586">
@@ -25858,7 +25858,7 @@
         </is>
       </c>
       <c r="D1586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1587">
@@ -25874,7 +25874,7 @@
         </is>
       </c>
       <c r="D1587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1588">
@@ -25890,7 +25890,7 @@
         </is>
       </c>
       <c r="D1588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1589">
@@ -26418,7 +26418,7 @@
         </is>
       </c>
       <c r="D1621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1622">
@@ -26434,7 +26434,7 @@
         </is>
       </c>
       <c r="D1622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1623">
@@ -26450,7 +26450,7 @@
         </is>
       </c>
       <c r="D1623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1624">
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="D1624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1625">
@@ -26482,7 +26482,7 @@
         </is>
       </c>
       <c r="D1625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1626">
@@ -26498,7 +26498,7 @@
         </is>
       </c>
       <c r="D1626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1627">
@@ -26514,7 +26514,7 @@
         </is>
       </c>
       <c r="D1627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1628">
@@ -26530,7 +26530,7 @@
         </is>
       </c>
       <c r="D1628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1629">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="D1629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1630">
@@ -28418,7 +28418,7 @@
         </is>
       </c>
       <c r="D1746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1747">
@@ -30594,7 +30594,7 @@
         </is>
       </c>
       <c r="D1882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1883">
@@ -32882,7 +32882,7 @@
         </is>
       </c>
       <c r="D2025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2026">
